--- a/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24360" windowHeight="11160"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="故障知识库导入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>故障知识库导入模板</t>
+    <t>故障知识库错误信息模板</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -721,8 +721,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -732,9 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,103 +1058,103 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="184" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4" ht="40.5" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="故障知识库导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="导入错误清单模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -714,12 +714,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1058,7 +1055,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1071,61 +1068,61 @@
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="184" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1154,7 +1151,7 @@
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="导入错误清单模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>故障知识库错误信息模板</t>
+    <t>故障知识库导入错误清单</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
@@ -34,7 +34,7 @@
 8.携带工具：非必填；</t>
   </si>
   <si>
-    <t>知识库类别</t>
+    <t>故障现象分类</t>
   </si>
   <si>
     <t>设备类型</t>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="导入错误清单模板" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
-1.知识库类别：必填，且系统中已存在；
+1.故障现象分类：必填，且系统中已存在；
 2.设备类型：必填，且系统中已存在；
 3.设备组件：非必填，且系统中已存在；
 4.故障现象：必填；
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBaseError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="导入错误清单模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>故障知识库导入错误清单</t>
   </si>
@@ -34,6 +34,12 @@
 8.携带工具：非必填；</t>
   </si>
   <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>子系统</t>
+  </si>
+  <si>
     <t>故障现象分类</t>
   </si>
   <si>
@@ -61,7 +67,13 @@
     <t>错误原因</t>
   </si>
   <si>
-    <t>{{fe:maplist t.knowledgeBaseTypeName</t>
+    <t>{{fe:maplist t.majorName</t>
+  </si>
+  <si>
+    <t>t.systemName</t>
+  </si>
+  <si>
+    <t>t.knowledgeBaseTypeName</t>
   </si>
   <si>
     <t>t.deviceTypeName</t>
@@ -1052,26 +1064,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1097,10 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="184" customHeight="1" spans="1:9">
+    <row r="2" ht="184" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1096,15 +1112,17 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1119,46 +1137,58 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="40.5" spans="1:9">
+    <row r="4" ht="27" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
